--- a/data/trans_camb/IP09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP09-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 59,31</t>
+          <t>-8,21; 58,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,46; 73,65</t>
+          <t>-33,99; 73,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 51,6</t>
+          <t>-19,38; 49,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 48,17</t>
+          <t>-20,17; 49,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 53,6</t>
+          <t>-32,51; 57,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 77,8</t>
+          <t>-24,06; 82,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 42,16</t>
+          <t>-4,08; 44,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 47,62</t>
+          <t>-20,54; 46,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 52,53</t>
+          <t>-5,71; 53,56</t>
         </is>
       </c>
     </row>
@@ -791,27 +791,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 507,99</t>
+          <t>-16,88; 427,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 482,04</t>
+          <t>-100,0; 489,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,69; 389,04</t>
+          <t>-40,65; 400,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,74; 675,19</t>
+          <t>-50,82; 662,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 228,51</t>
+          <t>-9,53; 275,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,31; 263,15</t>
+          <t>-63,6; 331,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 323,18</t>
+          <t>-18,68; 357,27</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 15,6</t>
+          <t>-12,94; 15,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 29,84</t>
+          <t>-4,24; 29,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 16,95</t>
+          <t>-15,91; 15,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 23,14</t>
+          <t>-8,41; 24,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 35,07</t>
+          <t>-4,39; 36,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 25,71</t>
+          <t>-11,55; 26,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 14,48</t>
+          <t>-5,37; 16,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 26,89</t>
+          <t>2,61; 26,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 14,58</t>
+          <t>-7,82; 15,93</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 70,89</t>
+          <t>-34,35; 67,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 138,51</t>
+          <t>-12,26; 132,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,96; 76,44</t>
+          <t>-43,03; 65,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,62; 135,44</t>
+          <t>-21,94; 156,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 208,03</t>
+          <t>-14,0; 221,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,99; 153,4</t>
+          <t>-32,27; 156,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 64,22</t>
+          <t>-15,04; 75,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 114,32</t>
+          <t>7,18; 111,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,63; 61,08</t>
+          <t>-22,87; 70,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 20,91</t>
+          <t>-22,8; 20,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 58,32</t>
+          <t>-0,97; 60,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 26,38</t>
+          <t>-21,66; 26,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 33,65</t>
+          <t>-12,98; 36,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 46,71</t>
+          <t>-7,0; 47,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 37,68</t>
+          <t>-7,51; 40,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 19,47</t>
+          <t>-10,8; 20,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 44,54</t>
+          <t>4,59; 45,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 25,02</t>
+          <t>-9,97; 23,1</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,98; 202,5</t>
+          <t>-71,16; 153,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 481,23</t>
+          <t>-7,71; 508,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,22; 203,62</t>
+          <t>-65,69; 213,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-65,76; 577,71</t>
+          <t>-59,05; 766,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,82; 708,15</t>
+          <t>-35,03; 852,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 628,71</t>
+          <t>-41,28; 794,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,76; 157,73</t>
+          <t>-42,08; 201,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,75; 348,64</t>
+          <t>18,42; 399,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 194,78</t>
+          <t>-35,64; 191,82</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 16,15</t>
+          <t>-5,9; 14,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,41; 31,08</t>
+          <t>3,98; 31,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 15,43</t>
+          <t>-9,1; 15,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 22,48</t>
+          <t>-1,09; 23,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,77; 31,62</t>
+          <t>1,88; 31,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 26,84</t>
+          <t>-2,54; 25,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 15,76</t>
+          <t>-1,38; 16,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,89; 27,22</t>
+          <t>7,69; 27,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 15,86</t>
+          <t>-2,42; 15,98</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 73,34</t>
+          <t>-16,71; 69,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,36; 140,32</t>
+          <t>12,42; 135,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 69,32</t>
+          <t>-28,47; 64,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 135,13</t>
+          <t>-6,93; 145,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,64; 183,85</t>
+          <t>6,45; 196,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 175,97</t>
+          <t>-8,67; 153,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 73,25</t>
+          <t>-4,39; 77,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>25,58; 121,65</t>
+          <t>24,58; 124,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 72,25</t>
+          <t>-8,43; 71,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP09-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,20 +531,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que padecen actualmente alguna dolencia o enfermedad continuada</t>
+          <t>Menores que padecen actualmente esa dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>17,52</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6,97</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>47,35</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>27,04</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>20,23</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>18,17</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>17,52</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,97</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,86</t>
+          <t>16,67</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,44</t>
+          <t>30,58</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 58,16</t>
+          <t>-15,4; 50,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 73,27</t>
+          <t>-33,5; 54,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 49,86</t>
+          <t>-16,77; 89,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 49,83</t>
+          <t>-10,2; 57,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,51; 57,33</t>
+          <t>-36,91; 72,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 82,7</t>
+          <t>-20,9; 51,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 44,08</t>
+          <t>-4,23; 44,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 46,31</t>
+          <t>-21,45; 47,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 53,56</t>
+          <t>-1,39; 66,48</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>71,55%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>28,48%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>193,33%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>81,72%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>61,12%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>54,9%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>71,55%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>28,48%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>126,0%</t>
+          <t>50,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>79,74%</t>
+          <t>104,02%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 427,99</t>
+          <t>-40,23; 716,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 489,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,65; 400,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,82; 662,84</t>
+          <t>-19,12; 443,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-100,0; 411,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-44,78; 339,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 275,16</t>
+          <t>-11,57; 296,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,6; 331,63</t>
+          <t>-62,86; 311,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 357,27</t>
+          <t>-5,64; 527,74</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,33</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16,44</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,46</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,45</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>13,42</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,33</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>16,44</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,62</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>1,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 15,24</t>
+          <t>-9,62; 23,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 29,54</t>
+          <t>-3,55; 34,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 15,55</t>
+          <t>-12,42; 24,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 24,08</t>
+          <t>-12,24; 14,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 36,4</t>
+          <t>-4,23; 29,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 26,89</t>
+          <t>-17,9; 13,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 16,03</t>
+          <t>-7,09; 14,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 26,74</t>
+          <t>0,72; 26,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 15,93</t>
+          <t>-12,35; 13,64</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>31,76%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>62,72%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24,64%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>8,17%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>44,66%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,51%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>31,76%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>62,72%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>-6,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>3,57%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,35; 67,94</t>
+          <t>-25,75; 138,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 132,62</t>
+          <t>-11,66; 219,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,03; 65,41</t>
+          <t>-36,72; 144,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,94; 156,83</t>
+          <t>-32,75; 65,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 221,88</t>
+          <t>-12,25; 132,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,27; 156,95</t>
+          <t>-49,45; 58,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 75,13</t>
+          <t>-20,43; 64,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 111,32</t>
+          <t>2,86; 113,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 70,07</t>
+          <t>-36,88; 57,48</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>10,7</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22,02</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14,85</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-1,53</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>31,52</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,56</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>10,7</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>22,02</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,16</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,94</t>
+          <t>8,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 20,21</t>
+          <t>-15,78; 34,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 60,23</t>
+          <t>-5,54; 48,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 26,75</t>
+          <t>-9,97; 39,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 36,4</t>
+          <t>-22,96; 20,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 47,95</t>
+          <t>1,09; 57,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 40,63</t>
+          <t>-20,3; 26,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 20,83</t>
+          <t>-10,84; 20,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 45,85</t>
+          <t>6,11; 47,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 23,1</t>
+          <t>-6,84; 24,93</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>66,53%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>136,91%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>92,35%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-6,62%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>136,25%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>11,05%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>66,53%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>136,91%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,03%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>41,34%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,16; 153,92</t>
+          <t>-67,8; 507,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 508,89</t>
+          <t>-37,19; 865,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,69; 213,09</t>
+          <t>-44,24; 725,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,05; 766,19</t>
+          <t>-68,19; 172,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,03; 852,32</t>
+          <t>4,36; 457,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,28; 794,3</t>
+          <t>-59,22; 232,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,08; 201,01</t>
+          <t>-43,27; 184,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,42; 399,37</t>
+          <t>19,47; 390,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,64; 191,82</t>
+          <t>-26,35; 217,25</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>11,51</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17,72</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15,31</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>4,64</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>17,41</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>11,51</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>17,72</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,26</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>6,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 14,99</t>
+          <t>-0,73; 24,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,98; 31,7</t>
+          <t>2,15; 30,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 15,37</t>
+          <t>0,44; 33,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 23,61</t>
+          <t>-6,7; 15,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 31,59</t>
+          <t>2,46; 30,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 25,92</t>
+          <t>-12,58; 13,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 16,1</t>
+          <t>-0,29; 16,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,69; 27,43</t>
+          <t>7,24; 28,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 15,98</t>
+          <t>-1,92; 18,29</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>50,56%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>77,88%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>67,27%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>16,12%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>60,46%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>10,58%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>50,56%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>77,88%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>53,87%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>25,39%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 69,39</t>
+          <t>-3,38; 162,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,42; 135,3</t>
+          <t>8,12; 191,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 64,67</t>
+          <t>-2,54; 199,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 145,07</t>
+          <t>-18,99; 67,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,45; 196,86</t>
+          <t>6,96; 132,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 153,56</t>
+          <t>-37,31; 55,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 77,14</t>
+          <t>-1,4; 79,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24,58; 124,21</t>
+          <t>22,02; 125,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 71,01</t>
+          <t>-7,49; 83,37</t>
         </is>
       </c>
     </row>
